--- a/natmiOut/OldD0/LR-pairs_lrc2p/Apod-Lepr.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Apod-Lepr.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.25279782385667</v>
+        <v>1.327089666666667</v>
       </c>
       <c r="H2">
-        <v>1.25279782385667</v>
+        <v>3.981269</v>
       </c>
       <c r="I2">
-        <v>0.0007502559780114865</v>
+        <v>0.0007725509783306236</v>
       </c>
       <c r="J2">
-        <v>0.0007502559780114865</v>
+        <v>0.0007725509783306238</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.15469342136683</v>
+        <v>2.773245666666666</v>
       </c>
       <c r="N2">
-        <v>1.15469342136683</v>
+        <v>8.319737</v>
       </c>
       <c r="O2">
-        <v>0.07495250082836284</v>
+        <v>0.1610278523700304</v>
       </c>
       <c r="P2">
-        <v>0.07495250082836284</v>
+        <v>0.1610278523700304</v>
       </c>
       <c r="Q2">
-        <v>1.446597405509978</v>
+        <v>3.680345667361444</v>
       </c>
       <c r="R2">
-        <v>1.446597405509978</v>
+        <v>33.123111006253</v>
       </c>
       <c r="S2">
-        <v>5.623356181339012E-05</v>
+        <v>0.0001244022248869462</v>
       </c>
       <c r="T2">
-        <v>5.623356181339012E-05</v>
+        <v>0.0001244022248869462</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.25279782385667</v>
+        <v>1.327089666666667</v>
       </c>
       <c r="H3">
-        <v>1.25279782385667</v>
+        <v>3.981269</v>
       </c>
       <c r="I3">
-        <v>0.0007502559780114865</v>
+        <v>0.0007725509783306236</v>
       </c>
       <c r="J3">
-        <v>0.0007502559780114865</v>
+        <v>0.0007725509783306238</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.5129627948165</v>
+        <v>11.68452533333333</v>
       </c>
       <c r="N3">
-        <v>11.5129627948165</v>
+        <v>35.053576</v>
       </c>
       <c r="O3">
-        <v>0.7473198837436305</v>
+        <v>0.6784591942232839</v>
       </c>
       <c r="P3">
-        <v>0.7473198837436305</v>
+        <v>0.6784591942232838</v>
       </c>
       <c r="Q3">
-        <v>14.42341473548892</v>
+        <v>15.50641282977155</v>
       </c>
       <c r="R3">
-        <v>14.42341473548892</v>
+        <v>139.557715467944</v>
       </c>
       <c r="S3">
-        <v>0.0005606812102655079</v>
+        <v>0.0005241443142546046</v>
       </c>
       <c r="T3">
-        <v>0.0005606812102655079</v>
+        <v>0.0005241443142546046</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.25279782385667</v>
+        <v>1.327089666666667</v>
       </c>
       <c r="H4">
-        <v>1.25279782385667</v>
+        <v>3.981269</v>
       </c>
       <c r="I4">
-        <v>0.0007502559780114865</v>
+        <v>0.0007725509783306236</v>
       </c>
       <c r="J4">
-        <v>0.0007502559780114865</v>
+        <v>0.0007725509783306238</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.73801282227898</v>
+        <v>2.764378</v>
       </c>
       <c r="N4">
-        <v>2.73801282227898</v>
+        <v>8.293134</v>
       </c>
       <c r="O4">
-        <v>0.1777276154280067</v>
+        <v>0.1605129534066858</v>
       </c>
       <c r="P4">
-        <v>0.1777276154280067</v>
+        <v>0.1605129534066858</v>
       </c>
       <c r="Q4">
-        <v>3.430176505442765</v>
+        <v>3.668577478560667</v>
       </c>
       <c r="R4">
-        <v>3.430176505442765</v>
+        <v>33.017197307046</v>
       </c>
       <c r="S4">
-        <v>0.0001333412059325886</v>
+        <v>0.0001240044391890729</v>
       </c>
       <c r="T4">
-        <v>0.0001333412059325886</v>
+        <v>0.0001240044391890729</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1630.2423172419</v>
+        <v>1678.019409</v>
       </c>
       <c r="H5">
-        <v>1630.2423172419</v>
+        <v>5034.058227</v>
       </c>
       <c r="I5">
-        <v>0.9762940362977243</v>
+        <v>0.9768409540380654</v>
       </c>
       <c r="J5">
-        <v>0.9762940362977243</v>
+        <v>0.9768409540380655</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.15469342136683</v>
+        <v>2.773245666666666</v>
       </c>
       <c r="N5">
-        <v>1.15469342136683</v>
+        <v>8.319737</v>
       </c>
       <c r="O5">
-        <v>0.07495250082836284</v>
+        <v>0.1610278523700304</v>
       </c>
       <c r="P5">
-        <v>0.07495250082836284</v>
+        <v>0.1610278523700304</v>
       </c>
       <c r="Q5">
-        <v>1882.430078953039</v>
+        <v>4653.560054591811</v>
       </c>
       <c r="R5">
-        <v>1882.430078953039</v>
+        <v>41882.0404913263</v>
       </c>
       <c r="S5">
-        <v>0.07317567956433088</v>
+        <v>0.1572986009358412</v>
       </c>
       <c r="T5">
-        <v>0.07317567956433088</v>
+        <v>0.1572986009358412</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1630.2423172419</v>
+        <v>1678.019409</v>
       </c>
       <c r="H6">
-        <v>1630.2423172419</v>
+        <v>5034.058227</v>
       </c>
       <c r="I6">
-        <v>0.9762940362977243</v>
+        <v>0.9768409540380654</v>
       </c>
       <c r="J6">
-        <v>0.9762940362977243</v>
+        <v>0.9768409540380655</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.5129627948165</v>
+        <v>11.68452533333333</v>
       </c>
       <c r="N6">
-        <v>11.5129627948165</v>
+        <v>35.053576</v>
       </c>
       <c r="O6">
-        <v>0.7473198837436305</v>
+        <v>0.6784591942232839</v>
       </c>
       <c r="P6">
-        <v>0.7473198837436305</v>
+        <v>0.6784591942232838</v>
       </c>
       <c r="Q6">
-        <v>18768.91914494144</v>
+        <v>19606.86029428553</v>
       </c>
       <c r="R6">
-        <v>18768.91914494144</v>
+        <v>176461.7426485697</v>
       </c>
       <c r="S6">
-        <v>0.729603945705615</v>
+        <v>0.6627467265609698</v>
       </c>
       <c r="T6">
-        <v>0.729603945705615</v>
+        <v>0.6627467265609698</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1630.2423172419</v>
+        <v>1678.019409</v>
       </c>
       <c r="H7">
-        <v>1630.2423172419</v>
+        <v>5034.058227</v>
       </c>
       <c r="I7">
-        <v>0.9762940362977243</v>
+        <v>0.9768409540380654</v>
       </c>
       <c r="J7">
-        <v>0.9762940362977243</v>
+        <v>0.9768409540380655</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.73801282227898</v>
+        <v>2.764378</v>
       </c>
       <c r="N7">
-        <v>2.73801282227898</v>
+        <v>8.293134</v>
       </c>
       <c r="O7">
-        <v>0.1777276154280067</v>
+        <v>0.1605129534066858</v>
       </c>
       <c r="P7">
-        <v>0.1777276154280067</v>
+        <v>0.1605129534066858</v>
       </c>
       <c r="Q7">
-        <v>4463.624368030119</v>
+        <v>4638.679937812602</v>
       </c>
       <c r="R7">
-        <v>4463.624368030119</v>
+        <v>41748.11944031341</v>
       </c>
       <c r="S7">
-        <v>0.1735144110277784</v>
+        <v>0.1567956265412545</v>
       </c>
       <c r="T7">
-        <v>0.1735144110277784</v>
+        <v>0.1567956265412545</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>38.3320646884703</v>
+        <v>38.45556733333333</v>
       </c>
       <c r="H8">
-        <v>38.3320646884703</v>
+        <v>115.366702</v>
       </c>
       <c r="I8">
-        <v>0.02295570772426413</v>
+        <v>0.02238649498360385</v>
       </c>
       <c r="J8">
-        <v>0.02295570772426413</v>
+        <v>0.02238649498360385</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.15469342136683</v>
+        <v>2.773245666666666</v>
       </c>
       <c r="N8">
-        <v>1.15469342136683</v>
+        <v>8.319737</v>
       </c>
       <c r="O8">
-        <v>0.07495250082836284</v>
+        <v>0.1610278523700304</v>
       </c>
       <c r="P8">
-        <v>0.07495250082836284</v>
+        <v>0.1610278523700304</v>
       </c>
       <c r="Q8">
-        <v>44.26178292318442</v>
+        <v>106.6467354663749</v>
       </c>
       <c r="R8">
-        <v>44.26178292318442</v>
+        <v>959.8206191973741</v>
       </c>
       <c r="S8">
-        <v>0.001720587702218562</v>
+        <v>0.003604849209302187</v>
       </c>
       <c r="T8">
-        <v>0.001720587702218562</v>
+        <v>0.003604849209302187</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>38.3320646884703</v>
+        <v>38.45556733333333</v>
       </c>
       <c r="H9">
-        <v>38.3320646884703</v>
+        <v>115.366702</v>
       </c>
       <c r="I9">
-        <v>0.02295570772426413</v>
+        <v>0.02238649498360385</v>
       </c>
       <c r="J9">
-        <v>0.02295570772426413</v>
+        <v>0.02238649498360385</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.5129627948165</v>
+        <v>11.68452533333333</v>
       </c>
       <c r="N9">
-        <v>11.5129627948165</v>
+        <v>35.053576</v>
       </c>
       <c r="O9">
-        <v>0.7473198837436305</v>
+        <v>0.6784591942232839</v>
       </c>
       <c r="P9">
-        <v>0.7473198837436305</v>
+        <v>0.6784591942232838</v>
       </c>
       <c r="Q9">
-        <v>441.3156346068579</v>
+        <v>449.3350507140391</v>
       </c>
       <c r="R9">
-        <v>441.3156346068579</v>
+        <v>4044.015456426352</v>
       </c>
       <c r="S9">
-        <v>0.01715525682774983</v>
+        <v>0.01518832334805946</v>
       </c>
       <c r="T9">
-        <v>0.01715525682774983</v>
+        <v>0.01518832334805946</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>38.3320646884703</v>
+        <v>38.45556733333333</v>
       </c>
       <c r="H10">
-        <v>38.3320646884703</v>
+        <v>115.366702</v>
       </c>
       <c r="I10">
-        <v>0.02295570772426413</v>
+        <v>0.02238649498360385</v>
       </c>
       <c r="J10">
-        <v>0.02295570772426413</v>
+        <v>0.02238649498360385</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.73801282227898</v>
+        <v>2.764378</v>
       </c>
       <c r="N10">
-        <v>2.73801282227898</v>
+        <v>8.293134</v>
       </c>
       <c r="O10">
-        <v>0.1777276154280067</v>
+        <v>0.1605129534066858</v>
       </c>
       <c r="P10">
-        <v>0.1777276154280067</v>
+        <v>0.1605129534066858</v>
       </c>
       <c r="Q10">
-        <v>104.953684621459</v>
+        <v>106.3057243137853</v>
       </c>
       <c r="R10">
-        <v>104.953684621459</v>
+        <v>956.7515188240681</v>
       </c>
       <c r="S10">
-        <v>0.004079863194295739</v>
+        <v>0.003593322426242211</v>
       </c>
       <c r="T10">
-        <v>0.004079863194295739</v>
+        <v>0.00359332242624221</v>
       </c>
     </row>
   </sheetData>
